--- a/data/2007_data.xlsx
+++ b/data/2007_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F8F2FED9B359EDE72A160BA1F35AFFAF512F98D0" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CD9C8874-3F06-4815-AD5D-79706659233B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="279">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,547 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Umbrella</t>
   </si>
   <si>
+    <t>The Sweet Escape</t>
+  </si>
+  <si>
+    <t>Big Girls Don't Cry</t>
+  </si>
+  <si>
+    <t>Buy U A Drank (Shawty Snappin')</t>
+  </si>
+  <si>
+    <t>Before He Cheats</t>
+  </si>
+  <si>
+    <t>Hey There Delilah</t>
+  </si>
+  <si>
+    <t>I Wanna Love You</t>
+  </si>
+  <si>
+    <t>Say It Right</t>
+  </si>
+  <si>
+    <t>Glamorous</t>
+  </si>
+  <si>
+    <t>Don't Matter</t>
+  </si>
+  <si>
+    <t>Girlfriend</t>
+  </si>
+  <si>
+    <t>Makes Me Wonder</t>
+  </si>
+  <si>
+    <t>Party Like A Rockstar</t>
+  </si>
+  <si>
+    <t>Smack That</t>
+  </si>
+  <si>
+    <t>This Is Why I'm Hot</t>
+  </si>
+  <si>
+    <t>It's Not Over</t>
+  </si>
+  <si>
+    <t>The Way I Are</t>
+  </si>
+  <si>
+    <t>Fergalicious</t>
+  </si>
+  <si>
+    <t>Crank That (Soulja Boy)</t>
+  </si>
+  <si>
+    <t>Give It To Me</t>
+  </si>
+  <si>
+    <t>What Goes Around...Comes Around</t>
+  </si>
+  <si>
+    <t>Cupid's Chokehold/Breakfast In America</t>
+  </si>
+  <si>
+    <t>How To Save A Life</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>My Love</t>
+  </si>
+  <si>
+    <t>Stronger</t>
+  </si>
+  <si>
+    <t>We Fly High</t>
+  </si>
+  <si>
+    <t>U + Ur Hand</t>
+  </si>
+  <si>
+    <t>Walk It Out</t>
+  </si>
+  <si>
+    <t>This Ain't A Scene, It's An Arms Race</t>
+  </si>
+  <si>
+    <t>Bartender</t>
+  </si>
+  <si>
+    <t>Pop, Lock &amp; Drop It</t>
+  </si>
+  <si>
+    <t>Runaway Love</t>
+  </si>
+  <si>
+    <t>Rockstar</t>
+  </si>
+  <si>
+    <t>Thnks Fr Th Mmrs</t>
+  </si>
+  <si>
+    <t>What I've Done</t>
+  </si>
+  <si>
+    <t>Summer Love</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Wait For You</t>
+  </si>
+  <si>
+    <t>Last Night</t>
+  </si>
+  <si>
+    <t>Make It Rain</t>
+  </si>
+  <si>
+    <t>Make Me Better</t>
+  </si>
+  <si>
+    <t>Ice Box</t>
+  </si>
+  <si>
+    <t>Lips Of An Angel</t>
+  </si>
+  <si>
+    <t>Waiting On The World To Change</t>
+  </si>
+  <si>
+    <t>Lost Without U</t>
+  </si>
+  <si>
+    <t>I'm A Flirt</t>
+  </si>
+  <si>
+    <t>If Everyone Cared</t>
+  </si>
+  <si>
+    <t>Get It Shawty</t>
+  </si>
+  <si>
+    <t>Face Down</t>
+  </si>
+  <si>
+    <t>The Way I Live</t>
+  </si>
+  <si>
+    <t>Shortie Like Mine</t>
+  </si>
+  <si>
+    <t>It Ends Tonight</t>
+  </si>
+  <si>
+    <t>A Bay Bay</t>
+  </si>
+  <si>
+    <t>Because Of You</t>
+  </si>
+  <si>
+    <t>I Tried</t>
+  </si>
+  <si>
+    <t>Welcome To The Black Parade</t>
+  </si>
+  <si>
+    <t>Shawty</t>
+  </si>
+  <si>
+    <t>Chasing Cars</t>
+  </si>
+  <si>
+    <t>Beautiful Liar</t>
+  </si>
+  <si>
+    <t>SexyBack</t>
+  </si>
+  <si>
+    <t>Keep Holding On</t>
+  </si>
+  <si>
+    <t>Let It Go</t>
+  </si>
+  <si>
+    <t>Apologize</t>
+  </si>
+  <si>
+    <t>Bubbly</t>
+  </si>
+  <si>
+    <t>Like A Boy</t>
+  </si>
+  <si>
+    <t>Who Knew</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Throw Some D's</t>
+  </si>
+  <si>
+    <t>Rehab</t>
+  </si>
+  <si>
+    <t>Big Things Poppin' (Do It)</t>
+  </si>
+  <si>
+    <t>No One</t>
+  </si>
+  <si>
+    <t>The Great Escape</t>
+  </si>
+  <si>
+    <t>Walk Away (Remember Me)</t>
+  </si>
+  <si>
+    <t>Go Getta</t>
+  </si>
+  <si>
+    <t>Here (In Your Arms)</t>
+  </si>
+  <si>
+    <t>On The Hotline</t>
+  </si>
+  <si>
+    <t>Wind It Up</t>
+  </si>
+  <si>
+    <t>Cyclone</t>
+  </si>
+  <si>
+    <t>Break It Off</t>
+  </si>
+  <si>
+    <t>First Time</t>
+  </si>
+  <si>
+    <t>Ayo Technology</t>
+  </si>
+  <si>
+    <t>Outta My System</t>
+  </si>
+  <si>
+    <t>Teardrops On My Guitar</t>
+  </si>
+  <si>
+    <t>Shut Up And Drive</t>
+  </si>
+  <si>
+    <t>Snow ((Hey Oh))</t>
+  </si>
+  <si>
+    <t>Money Maker</t>
+  </si>
+  <si>
+    <t>Kiss Kiss</t>
+  </si>
+  <si>
+    <t>Far Away</t>
+  </si>
+  <si>
+    <t>Rock Yo Hips</t>
+  </si>
+  <si>
+    <t>Better Than Me</t>
+  </si>
+  <si>
+    <t>Paralyzer</t>
+  </si>
+  <si>
+    <t>That's That</t>
+  </si>
+  <si>
+    <t>Same Girl</t>
+  </si>
+  <si>
     <t>Rihanna Featuring Jay-Z</t>
+  </si>
+  <si>
+    <t>Gwen Stefani Featuring Akon</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>T-Pain Featuring Yung Joc</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Plain White T's</t>
+  </si>
+  <si>
+    <t>Akon Featuring Snoop Dogg</t>
+  </si>
+  <si>
+    <t>Nelly Furtado</t>
+  </si>
+  <si>
+    <t>Fergie Featuring Ludacris</t>
+  </si>
+  <si>
+    <t>Akon</t>
+  </si>
+  <si>
+    <t>Avril Lavigne</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Shop Boyz</t>
+  </si>
+  <si>
+    <t>Akon Featuring Eminem</t>
+  </si>
+  <si>
+    <t>Mims</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>Timbaland Featuring Keri Hilson</t>
+  </si>
+  <si>
+    <t>Soulja Boy Tell'em</t>
+  </si>
+  <si>
+    <t>Timbaland Featuring Nelly Furtado &amp; Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Gym Class Heroes Featuring Patrick Stump</t>
+  </si>
+  <si>
+    <t>The Fray</t>
+  </si>
+  <si>
+    <t>Justin Timberlake Featuring T.I.</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Jim Jones</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Unk</t>
+  </si>
+  <si>
+    <t>Sean Kingston</t>
+  </si>
+  <si>
+    <t>Fall Out Boy</t>
+  </si>
+  <si>
+    <t>T-Pain Featuring Akon</t>
+  </si>
+  <si>
+    <t>Huey</t>
+  </si>
+  <si>
+    <t>Ludacris Featuring Mary J. Blige</t>
+  </si>
+  <si>
+    <t>Nickelback</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Lloyd Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Elliott Yamin</t>
+  </si>
+  <si>
+    <t>Diddy Featuring Keyshia Cole</t>
+  </si>
+  <si>
+    <t>Fat Joe Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Fabolous Featuring Ne-Yo</t>
+  </si>
+  <si>
+    <t>Omarion</t>
+  </si>
+  <si>
+    <t>Hinder</t>
+  </si>
+  <si>
+    <t>John Mayer</t>
+  </si>
+  <si>
+    <t>Robin Thicke</t>
+  </si>
+  <si>
+    <t>R. Kelly Or Bow Wow (Featuring T.I. &amp; T-Pain)</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>The Red Jumpsuit Apparatus</t>
+  </si>
+  <si>
+    <t>Baby Boy Da Prince Featuring Lil Boosie</t>
+  </si>
+  <si>
+    <t>Bow Wow Featuring Chris Brown &amp; Johnta Austin</t>
+  </si>
+  <si>
+    <t>The All-American Rejects</t>
+  </si>
+  <si>
+    <t>Hurricane Chris</t>
+  </si>
+  <si>
+    <t>Ne-Yo</t>
+  </si>
+  <si>
+    <t>Bone Thugs-N-Harmony Featuring Akon</t>
+  </si>
+  <si>
+    <t>My Chemical Romance</t>
+  </si>
+  <si>
+    <t>Plies Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Snow Patrol</t>
+  </si>
+  <si>
+    <t>Beyonce &amp; Shakira</t>
+  </si>
+  <si>
+    <t>Keyshia Cole Featuring Missy Elliott &amp; Lil Kim</t>
+  </si>
+  <si>
+    <t>Timbaland Featuring OneRepublic</t>
+  </si>
+  <si>
+    <t>Colbie Caillat</t>
+  </si>
+  <si>
+    <t>Ciara</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Rich Boy Featuring Polow Da Don</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>T.I.</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>Boys Like Girls</t>
+  </si>
+  <si>
+    <t>Paula DeAnda Featuring The DEY</t>
+  </si>
+  <si>
+    <t>Young Jeezy Featuring R. Kelly</t>
+  </si>
+  <si>
+    <t>Hellogoodbye</t>
+  </si>
+  <si>
+    <t>Pretty Ricky</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>Baby Bash Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Rihanna &amp; Sean Paul</t>
+  </si>
+  <si>
+    <t>Lifehouse</t>
+  </si>
+  <si>
+    <t>50 Cent Featuring Justin Timberlake &amp; Timbaland</t>
+  </si>
+  <si>
+    <t>Bow Wow Featuring T-Pain &amp; Johnta Austin</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>Ludacris Featuring Pharrell</t>
+  </si>
+  <si>
+    <t>Chris Brown Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Crime Mob Featuring Lil Scrappy</t>
+  </si>
+  <si>
+    <t>Finger Eleven</t>
+  </si>
+  <si>
+    <t>Snoop Dogg Featuring R. Kelly</t>
+  </si>
+  <si>
+    <t>R. Kelly Duet With Usher</t>
   </si>
   <si>
     <t>Uh-huh, uh-huh (Yeah, Rihanna)
@@ -128,12 +671,6 @@
 Come in to me, come in to me</t>
   </si>
   <si>
-    <t>The Sweet Escape</t>
-  </si>
-  <si>
-    <t>Gwen Stefani Featuring Akon</t>
-  </si>
-  <si>
     <t>If I could escape I would but, first of all, let me say
 I must apologize for acting stank and treating you this way
 'Cause I've been acting like sour milk all on the floorIt's your fault you didn't shut the refrigerator
@@ -192,12 +729,6 @@
 I want to get away, yeah</t>
   </si>
   <si>
-    <t>Big Girls Don't Cry</t>
-  </si>
-  <si>
-    <t>Fergie</t>
-  </si>
-  <si>
     <t>Da da da da
 The smell of your skin lingers on me nowYou're probably on your flight back to your home town
 I need some shelter of my own protection, baby
@@ -246,12 +777,6 @@
 Don't cry
 Don't cry
 La da da da da da</t>
-  </si>
-  <si>
-    <t>Buy U A Drank (Shawty Snappin')</t>
-  </si>
-  <si>
-    <t>T-Pain Featuring Yung Joc</t>
   </si>
   <si>
     <t>(Shawty snap)
@@ -328,12 +853,6 @@
 We in the bed like, ooh, ooh, woah, ooh, woah, woah, ooh, ooh, woah</t>
   </si>
   <si>
-    <t>Before He Cheats</t>
-  </si>
-  <si>
-    <t>Carrie Underwood</t>
-  </si>
-  <si>
     <t>Right now, he's probably slow dancin'
 With a bleached-blond tramp
 And she's probably gettin' friskyRight now, he's probably buyin'
@@ -376,12 +895,6 @@
 Oh, maybe next time he'll think before he cheats
 Oh, before he cheats
 Oooh</t>
-  </si>
-  <si>
-    <t>Hey There Delilah</t>
-  </si>
-  <si>
-    <t>Plain White T's</t>
   </si>
   <si>
     <t>Hey there Delilah, what's it like in New York City?
@@ -430,12 +943,6 @@
 What you do to me
 Oh-oh, oh-oh, oh-oh-oh, oh-oh
 Oh-oh, oh-oh, oh-oh, oh-oh</t>
-  </si>
-  <si>
-    <t>I Wanna Love You</t>
-  </si>
-  <si>
-    <t>Akon Featuring Snoop Dogg</t>
   </si>
   <si>
     <t>Konvict
@@ -499,12 +1006,6 @@
 I wanna f*ck you, you already know, girl, girl</t>
   </si>
   <si>
-    <t>Say It Right</t>
-  </si>
-  <si>
-    <t>Nelly Furtado</t>
-  </si>
-  <si>
     <t>Hey
 You don't mean nothin' at all to me
 Hey, heyIn the day, in the night
@@ -540,12 +1041,6 @@
 Hey, hey, hey
 You don't mean nothin' at all to me
 Hey, hey</t>
-  </si>
-  <si>
-    <t>Glamorous</t>
-  </si>
-  <si>
-    <t>Fergie Featuring Ludacris</t>
   </si>
   <si>
     <t>Are you ready?
@@ -645,12 +1140,6 @@
 He let his daughter know</t>
   </si>
   <si>
-    <t>Don't Matter</t>
-  </si>
-  <si>
-    <t>Akon</t>
-  </si>
-  <si>
     <t>Konvict, konvict, konvict
 Oh, oh, oh, oh-oh-oh, oh, ohOh, oh, oh, oh-oh-oh, oh, oh
 Nobody wanna see us together
@@ -736,12 +1225,6 @@
 But it don't matter, no ('Cause I got you)
 'Cause I got you, babe
 'Cause I got you, babe</t>
-  </si>
-  <si>
-    <t>Girlfriend</t>
-  </si>
-  <si>
-    <t>Avril Lavigne</t>
   </si>
   <si>
     <t>Hey, hey, you, you
@@ -838,12 +1321,6 @@
 No way, no way, hey, hey</t>
   </si>
   <si>
-    <t>Makes Me Wonder</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
     <t>I wake up with blood-shot eyes
 Struggled to memorize
 The way it felt between your thighsPleasure that made you cry
@@ -898,12 +1375,6 @@
 Oh, no, so, this is goodbye
 Oh, no, yeah, so, this is goodbye
 Oh, no, yeah, so, this is goodbye</t>
-  </si>
-  <si>
-    <t>Party Like A Rockstar</t>
-  </si>
-  <si>
-    <t>Shop Boyz</t>
   </si>
   <si>
     <t>Yeah, yeah, yeah, yeah
@@ -1026,12 +1497,6 @@
 Totally dude!</t>
   </si>
   <si>
-    <t>Smack That</t>
-  </si>
-  <si>
-    <t>Akon Featuring Eminem</t>
-  </si>
-  <si>
     <t>Shady, Konvict, Upfront
 Akon, Slim Shady
 I see the one, 'cause she be that lady, hey!I feel you creeping up, I can see it from my shadow
@@ -1115,12 +1580,6 @@
 Smack that, give me some more
 Smack that, 'til you get sore
 Smack that, oh ooh</t>
-  </si>
-  <si>
-    <t>This Is Why I'm Hot</t>
-  </si>
-  <si>
-    <t>Mims</t>
   </si>
   <si>
     <t>This is why I'm hot
@@ -1279,12 +1738,6 @@
 This is why I'm hot</t>
   </si>
   <si>
-    <t>It's Not Over</t>
-  </si>
-  <si>
-    <t>Daughtry</t>
-  </si>
-  <si>
     <t>I was blown away, what could I say?
 It all seemed to make sense
 You've taken away everything, and I can't deal with thatI try to see the good in life
@@ -1330,12 +1783,6 @@
 It's not over</t>
   </si>
   <si>
-    <t>The Way I Are</t>
-  </si>
-  <si>
-    <t>Timbaland Featuring Keri Hilson</t>
-  </si>
-  <si>
     <t>Yeah!
 Yeah!
 Remember the time, babyYeah!
@@ -1378,9 +1825,6 @@
 So listen baby girl, once you get a dose of D.O.E. you gon' want some mo'
 So listen baby girl, when I'm naked I want you there,
 Fuckin' want you there, yeah</t>
-  </si>
-  <si>
-    <t>Fergalicious</t>
   </si>
   <si>
     <t>Tres, two, uno
@@ -1481,12 +1925,6 @@
 To the D to the E to the, to the, to the, to the, to the...</t>
   </si>
   <si>
-    <t>Crank That (Soulja Boy)</t>
-  </si>
-  <si>
-    <t>Soulja Boy Tell'em</t>
-  </si>
-  <si>
     <t>Soulja boy tell 'em
 Ay I got the new dance for y'all called the Soulja Boy
 You gotta punch in, crank back three times from left to rightSoulja Boy Up in this ho
@@ -1578,12 +2016,6 @@
 Watch me crank dat Soulja Boy</t>
   </si>
   <si>
-    <t>Give It To Me</t>
-  </si>
-  <si>
-    <t>Timbaland Featuring Nelly Furtado &amp; Justin Timberlake</t>
-  </si>
-  <si>
     <t>Is it going is it going is it going is it going?
 I don't know what you're looking forI'm the type of girl that'll look you dead in the eye (eye)
 I'm real as they come if you don't know why im fly
@@ -1641,12 +2073,6 @@
 So give it to me give it to me give it to me
 Wanna see you work your body
 So give it to me give it to me give it to me</t>
-  </si>
-  <si>
-    <t>What Goes Around...Comes Around</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
   </si>
   <si>
     <t>Hey girl, is he everything you wanted in a man?
@@ -1781,12 +2207,6 @@
 (What goes around comes back around)</t>
   </si>
   <si>
-    <t>Cupid's Chokehold/Breakfast In America</t>
-  </si>
-  <si>
-    <t>Gym Class Heroes Featuring Patrick Stump</t>
-  </si>
-  <si>
     <t>Ba ba da da, ba ba da da
 Ba ba da da, ba ba da da, ba ba da daTake a look at my girlfriend
 She's the only one I got
@@ -1873,12 +2293,6 @@
 (Ba ba da da, ba ba da da)</t>
   </si>
   <si>
-    <t>How To Save A Life</t>
-  </si>
-  <si>
-    <t>The Fray</t>
-  </si>
-  <si>
     <t>Step one, you say, "We need to talk"
 He walks, you say, "Sit down, it's just a talk"
 He smiles politely back at youYou stare politely right on through
@@ -1932,9 +2346,6 @@
 How to save a life</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>I'm staring out into the night
 Trying to hide the pain
 I'm going to the place where loveAnd feeling good don't ever cost a thing
@@ -1978,12 +2389,6 @@
 I said these places and these faces are getting old
 So I'm going home
 I'm going home</t>
-  </si>
-  <si>
-    <t>My Love</t>
-  </si>
-  <si>
-    <t>Justin Timberlake Featuring T.I.</t>
   </si>
   <si>
     <t>Ain't another woman that can take your spot my-
@@ -2084,12 +2489,6 @@
 Love
 My love
 My love</t>
-  </si>
-  <si>
-    <t>Stronger</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
   </si>
   <si>
     <t>Work it, make it, do it, makes us
@@ -2218,18 +2617,6 @@
 Never over...</t>
   </si>
   <si>
-    <t>We Fly High</t>
-  </si>
-  <si>
-    <t>Jim Jones</t>
-  </si>
-  <si>
-    <t>U + Ur Hand</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
     <t>Uh, uh, uh, uh, uh, uh, uh, oh
 Uh, uh, uh, uh, uh, uh, uh, ohCheck it out, going out on the late night
 Looking tight, feeling nice, it's a cock fight
@@ -2291,12 +2678,6 @@
 Keep your drink just give me the money
 It's just you and your hand tonight
 Yeah oh</t>
-  </si>
-  <si>
-    <t>Walk It Out</t>
-  </si>
-  <si>
-    <t>Unk</t>
   </si>
   <si>
     <t>Ayyyyyyy
@@ -2386,18 +2767,6 @@
 I Said Do It How U Do It Gone And Walk It Out</t>
   </si>
   <si>
-    <t>Beautiful Girls</t>
-  </si>
-  <si>
-    <t>Sean Kingston</t>
-  </si>
-  <si>
-    <t>This Ain't A Scene, It's An Arms Race</t>
-  </si>
-  <si>
-    <t>Fall Out Boy</t>
-  </si>
-  <si>
     <t>I am an arms dealer fitting you with weapons in the form of words
 And (don't really care which side wins)
 As long as the room keeps singing that's just the business I'm inThis ain't a scene, it's a goddamn arms race
@@ -2444,12 +2813,6 @@
 I'm a leading man
 And the lies I weave are oh so intricate,
 Oh so intricate</t>
-  </si>
-  <si>
-    <t>Bartender</t>
-  </si>
-  <si>
-    <t>T-Pain Featuring Akon</t>
   </si>
   <si>
     <t>Yeah...
@@ -2520,12 +2883,6 @@
 (Yeah if you're lookin' for me)
 I'm at the bar with her
 (Oh uh-huh, OK)</t>
-  </si>
-  <si>
-    <t>Pop, Lock &amp; Drop It</t>
-  </si>
-  <si>
-    <t>Huey</t>
   </si>
   <si>
     <t>Toot that thang up mami, make it roll
@@ -2657,18 +3014,6 @@
 You ain't neva lied, oh</t>
   </si>
   <si>
-    <t>Runaway Love</t>
-  </si>
-  <si>
-    <t>Ludacris Featuring Mary J. Blige</t>
-  </si>
-  <si>
-    <t>Rockstar</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
-  </si>
-  <si>
     <t>I'm through with standing in line to clubs I'll never get in
 It's like the bottom of the ninth, and I'm never gonna win
 This life hasn't turned out quite the way I want it to be(Tell me what you want)
@@ -2739,9 +3084,6 @@
 Hmm, hey, hey, I wanna be a rockstar</t>
   </si>
   <si>
-    <t>Thnks Fr Th Mmrs</t>
-  </si>
-  <si>
     <t>I'm gonna make you bend and break (it sent you to me without wings)
 Say a prayer, but let the good times roll
 In case God doesn't show(Let the good times roll)
@@ -2795,12 +3137,6 @@
 "See, he tastes like you only sweeter"</t>
   </si>
   <si>
-    <t>What I've Done</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
     <t>In this farewell
 There's no blood, there's no alibi
 'Cause I've drawn regretFrom the truth of a thousand lies
@@ -2840,9 +3176,6 @@
 (Na-na, na, na)
 (Na-na, na, na)
 (Na-na, na)</t>
-  </si>
-  <si>
-    <t>Summer Love</t>
   </si>
   <si>
     <t>Ridin' in the drop top with the top down
@@ -2897,12 +3230,6 @@
 This just can't be summer love, you'll see
 This just can't be summer love
 L, O, V, E</t>
-  </si>
-  <si>
-    <t>You</t>
-  </si>
-  <si>
-    <t>Lloyd Featuring Lil Wayne</t>
   </si>
   <si>
     <t>It's a major move right here, baby
@@ -2981,12 +3308,6 @@
 So what you want me to do? You</t>
   </si>
   <si>
-    <t>Wait For You</t>
-  </si>
-  <si>
-    <t>Elliott Yamin</t>
-  </si>
-  <si>
     <t>I never felt nothing in the world like this before (noo)
 Now I'm missing you and I'm wishing you would come back through my door (yeah)
 OoooooWhy did you have to go? (go)
@@ -3061,12 +3382,6 @@
 I'll Be Waiting...</t>
   </si>
   <si>
-    <t>Last Night</t>
-  </si>
-  <si>
-    <t>Diddy Featuring Keyshia Cole</t>
-  </si>
-  <si>
     <t>Last night (last night)
 I couldn't even get an answer (answer)
 I tried to call (tried to call)But my pride wouldn't let me dial (dial, dial, dial)
@@ -3133,12 +3448,6 @@
 And dial up my number
 And call me up, baby?
 I'm waiting on you</t>
-  </si>
-  <si>
-    <t>Make It Rain</t>
-  </si>
-  <si>
-    <t>Fat Joe Featuring Lil Wayne</t>
   </si>
   <si>
     <t>Oww Scottie lets make it rain on these niggas
@@ -3212,18 +3521,6 @@
 I make it rain on them hoes</t>
   </si>
   <si>
-    <t>Make Me Better</t>
-  </si>
-  <si>
-    <t>Fabolous Featuring Ne-Yo</t>
-  </si>
-  <si>
-    <t>Ice Box</t>
-  </si>
-  <si>
-    <t>Omarion</t>
-  </si>
-  <si>
     <t>Fussin' and fightin', we back at it again
 I know that, it's my fault, but you don't understand (No)
 I got memories, this is crazyYou ain't nothing like the girl I used to know
@@ -3291,12 +3588,6 @@
 I'm so cold, I'm so cold, I'm so cold</t>
   </si>
   <si>
-    <t>Lips Of An Angel</t>
-  </si>
-  <si>
-    <t>Hinder</t>
-  </si>
-  <si>
     <t>Honey, why you calling me so late?
 It's kinda of hard to talk right now
 Honey, why you crying? Is everything OK?I got to whisper 'cause I can't be too loud
@@ -3336,12 +3627,6 @@
 But girl, you make it hard to be faithful
 With the lips of an angel
 Honey, why you calling me so late?</t>
-  </si>
-  <si>
-    <t>Waiting On The World To Change</t>
-  </si>
-  <si>
-    <t>John Mayer</t>
   </si>
   <si>
     <t>"One, two, one two three"
@@ -3386,12 +3671,6 @@
 Waiting on the world to change
 We keep on waiting (waiting)
 Waiting on the world to change.</t>
-  </si>
-  <si>
-    <t>Lost Without U</t>
-  </si>
-  <si>
-    <t>Robin Thicke</t>
   </si>
   <si>
     <t>I'm lost without you
@@ -3462,15 +3741,6 @@
 Yeah</t>
   </si>
   <si>
-    <t>I'm A Flirt</t>
-  </si>
-  <si>
-    <t>R. Kelly Or Bow Wow (Featuring T.I. &amp; T-Pain)</t>
-  </si>
-  <si>
-    <t>If Everyone Cared</t>
-  </si>
-  <si>
     <t>From underneath the trees, we'd watch the sky
 Confusing stars for satellites
 I never dreamed that you'd be mineBut here we are, we're here tonight
@@ -3515,12 +3785,6 @@
 We'd see the day; we'd see the day
 When nobody died
 We'd see the day when nobody died</t>
-  </si>
-  <si>
-    <t>Get It Shawty</t>
-  </si>
-  <si>
-    <t>Lloyd</t>
   </si>
   <si>
     <t>I guess I can let this woman slip away
@@ -3599,12 +3863,6 @@
 Get it shawty (get it shawty...)</t>
   </si>
   <si>
-    <t>Face Down</t>
-  </si>
-  <si>
-    <t>The Red Jumpsuit Apparatus</t>
-  </si>
-  <si>
     <t>Face Down
 The Red Jumpsuit ApparatusHey girl you know you drive me crazy
 One look puts the rhythm in my hand
@@ -3651,18 +3909,6 @@
 Face down in the dirt
 She said "This doesn't hurt!"
 She said "I finally had enough!"</t>
-  </si>
-  <si>
-    <t>The Way I Live</t>
-  </si>
-  <si>
-    <t>Baby Boy Da Prince Featuring Lil Boosie</t>
-  </si>
-  <si>
-    <t>Shortie Like Mine</t>
-  </si>
-  <si>
-    <t>Bow Wow Featuring Chris Brown &amp; Johnta Austin</t>
   </si>
   <si>
     <t>Y'all know what this is
@@ -3768,12 +4014,6 @@
 Search...</t>
   </si>
   <si>
-    <t>It Ends Tonight</t>
-  </si>
-  <si>
-    <t>The All-American Rejects</t>
-  </si>
-  <si>
     <t>Your subtleties
 They strangle me
 I can't explain myself at allAnd all the wants
@@ -3829,12 +4069,6 @@
 Insight
 When darkness turns to light
 It ends tonight...</t>
-  </si>
-  <si>
-    <t>A Bay Bay</t>
-  </si>
-  <si>
-    <t>Hurricane Chris</t>
   </si>
   <si>
     <t>Ay Bay Bay(Ay)
@@ -4018,12 +4252,6 @@
 Im In Da Club Hollin'</t>
   </si>
   <si>
-    <t>Because Of You</t>
-  </si>
-  <si>
-    <t>Ne-Yo</t>
-  </si>
-  <si>
     <t>Want to, but I can't help it, I love the way it feels
 This got me stuck between my fantasy and what is real
 I need it when I want it, I want it when I don'tTell myself I'll stop everyday, knowing that I won't
@@ -4069,12 +4297,6 @@
 Never get enough
 She's the sweetest drug
 She's the sweetest drug</t>
-  </si>
-  <si>
-    <t>I Tried</t>
-  </si>
-  <si>
-    <t>Bone Thugs-N-Harmony Featuring Akon</t>
   </si>
   <si>
     <t>Bone Thugs Akon yeah
@@ -4166,12 +4388,6 @@
 I'll be posted up right here with my heat gettin dough</t>
   </si>
   <si>
-    <t>Welcome To The Black Parade</t>
-  </si>
-  <si>
-    <t>My Chemical Romance</t>
-  </si>
-  <si>
     <t>When I was a young boy
 My father took me into the city
 To see a marching bandHe said, "Son, when you grow up
@@ -4246,18 +4462,6 @@
 We want it all, we wanna play this part (we'll carry on!)</t>
   </si>
   <si>
-    <t>Shawty</t>
-  </si>
-  <si>
-    <t>Plies Featuring T-Pain</t>
-  </si>
-  <si>
-    <t>Chasing Cars</t>
-  </si>
-  <si>
-    <t>Snow Patrol</t>
-  </si>
-  <si>
     <t>We'll do it all
 Everything
 On our ownWe don't need
@@ -4299,12 +4503,6 @@
 If I lay here
 If I just lay here
 Would you lie with me and just forget the world?</t>
-  </si>
-  <si>
-    <t>Beautiful Liar</t>
-  </si>
-  <si>
-    <t>Beyonce &amp; Shakira</t>
   </si>
   <si>
     <t>Ay! Ay! Ay!
@@ -4361,9 +4559,6 @@
 Oh! It's not worth our time
 Oh! We can live without him
 Just a beautiful liar</t>
-  </si>
-  <si>
-    <t>SexyBack</t>
   </si>
   <si>
     <t>Ha
@@ -4500,9 +4695,6 @@
 Yes</t>
   </si>
   <si>
-    <t>Keep Holding On</t>
-  </si>
-  <si>
     <t>You're not alone, together we stand
 I'll be by your side, you know, I'll take your hand
 When it gets cold and it feels like the endThere's no place to go, you know, I won't give in
@@ -4554,12 +4746,6 @@
 So keep holding on
 'Cause you know we'll make it through
 We'll make it through</t>
-  </si>
-  <si>
-    <t>Let It Go</t>
-  </si>
-  <si>
-    <t>Keyshia Cole Featuring Missy Elliott &amp; Lil Kim</t>
   </si>
   <si>
     <t>You need to get if he don't wanna
@@ -4637,12 +4823,6 @@
 Kim and Keyshia don't stop til' the tick don't tock, like damnnn that's hot.</t>
   </si>
   <si>
-    <t>Apologize</t>
-  </si>
-  <si>
-    <t>Timbaland Featuring OneRepublic</t>
-  </si>
-  <si>
     <t>I'm holding on your rope
 Got me ten feet off the ground
 And I'm hearing what you sayBut I just can't make a sound
@@ -4668,12 +4848,6 @@
 I said it's too late to apologize, yeah
 I'm holding on your rope
 Got me ten feet off the ground</t>
-  </si>
-  <si>
-    <t>Bubbly</t>
-  </si>
-  <si>
-    <t>Colbie Caillat</t>
   </si>
   <si>
     <t>Will you count me in?
@@ -4728,12 +4902,6 @@
 I always know
 'Cause you make me smile
 Even just for a while</t>
-  </si>
-  <si>
-    <t>Like A Boy</t>
-  </si>
-  <si>
-    <t>Ciara</t>
   </si>
   <si>
     <t>C-I-A-R-A
@@ -4813,9 +4981,6 @@
 (Can't handle that)</t>
   </si>
   <si>
-    <t>Who Knew</t>
-  </si>
-  <si>
     <t>You took my hand
 You showed me how
 You promised me you'd be aroundUh-huh, that's right
@@ -4872,12 +5037,6 @@
 My darling
 Who knew?
 Who knew?</t>
-  </si>
-  <si>
-    <t>Never Again</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
   </si>
   <si>
     <t>I hope the ring you gave to her
@@ -4955,21 +5114,6 @@
 I never will
 I never will
 Never again</t>
-  </si>
-  <si>
-    <t>Promise</t>
-  </si>
-  <si>
-    <t>Bed</t>
-  </si>
-  <si>
-    <t>J. Holiday</t>
-  </si>
-  <si>
-    <t>Throw Some D's</t>
-  </si>
-  <si>
-    <t>Rich Boy Featuring Polow Da Don</t>
   </si>
   <si>
     <t>Rich boy sellin' crack
@@ -5053,12 +5197,6 @@
 Thangs on that bitch!!</t>
   </si>
   <si>
-    <t>Rehab</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
     <t>They tried to make me go to Rehab
 But I said no, no, no
 Yes I've been black but when I come backYou'll know, know, know
@@ -5105,12 +5243,6 @@
 And if my daddy thinks I'm fine
 Just try to make me go to Rehab
 But I won't go, go, go!</t>
-  </si>
-  <si>
-    <t>Big Things Poppin' (Do It)</t>
-  </si>
-  <si>
-    <t>T.I.</t>
   </si>
   <si>
     <t>Hey, hey what you waitin' for?
@@ -5222,12 +5354,6 @@
 Now do it</t>
   </si>
   <si>
-    <t>No One</t>
-  </si>
-  <si>
-    <t>Alicia Keys</t>
-  </si>
-  <si>
     <t>I just want you close
 Where you can stay forever
 You can be sureThat it will only get better
@@ -5280,12 +5406,6 @@
 Oh-oh, oh-oh, oh, oh, oh, oh, oh</t>
   </si>
   <si>
-    <t>The Great Escape</t>
-  </si>
-  <si>
-    <t>Boys Like Girls</t>
-  </si>
-  <si>
     <t>Paper bags and plastic hearts
 All our belongings in shopping carts
 It's goodbye, but we got one more nightLet's get drunk and ride around
@@ -5327,15 +5447,6 @@
 They don't know us anyway
 Watch it burn, let it die
 'Cause we are finally free, tonight!</t>
-  </si>
-  <si>
-    <t>2 Step</t>
-  </si>
-  <si>
-    <t>Walk Away (Remember Me)</t>
-  </si>
-  <si>
-    <t>Paula DeAnda Featuring The DEY</t>
   </si>
   <si>
     <t>I'm gonna remember you
@@ -5426,12 +5537,6 @@
 You're gonna remember me</t>
   </si>
   <si>
-    <t>Go Getta</t>
-  </si>
-  <si>
-    <t>Young Jeezy Featuring R. Kelly</t>
-  </si>
-  <si>
     <t>You know we trap all day, we play all night
 This is the life of a, the life of a, go getta, go getta, go getta
 You in da club you see a bad bitch, point her outYeah, you're damn right I'ma, you're damn right I'ma
@@ -5487,18 +5592,6 @@
 You in da club you see a bad bitch, point her out
 Yeah, you're damn right I'ma, you're damn right I'ma
 Go getta, go getta, go getta</t>
-  </si>
-  <si>
-    <t>Here (In Your Arms)</t>
-  </si>
-  <si>
-    <t>Hellogoodbye</t>
-  </si>
-  <si>
-    <t>On The Hotline</t>
-  </si>
-  <si>
-    <t>Pretty Ricky</t>
   </si>
   <si>
     <t>Whoa whoa whoa whoa whoa
@@ -5569,18 +5662,6 @@
 Say Pretty Ricky Ricky Ricky say Pretty Ricky Ricky Ricky
 Whoa whoa whoa whoa whoa
 Say Pretty Ricky Ricky Ricky say Pretty Ricky Ricky Ricky</t>
-  </si>
-  <si>
-    <t>Wind It Up</t>
-  </si>
-  <si>
-    <t>Gwen Stefani</t>
-  </si>
-  <si>
-    <t>Cyclone</t>
-  </si>
-  <si>
-    <t>Baby Bash Featuring T-Pain</t>
   </si>
   <si>
     <t>O-oh (O-oh)
@@ -5679,12 +5760,6 @@
 (Ayyvo)</t>
   </si>
   <si>
-    <t>Break It Off</t>
-  </si>
-  <si>
-    <t>Rihanna &amp; Sean Paul</t>
-  </si>
-  <si>
     <t>Breaking it off and setting it off in the real way
 Making the girls, them chill their mind (feel fine)
 Making them have a good time (time)Yeah, man, S Peezy, yo, long side Ri, Ri
@@ -5764,12 +5839,6 @@
 Set it off, boy, make me hot all over my body...</t>
   </si>
   <si>
-    <t>First Time</t>
-  </si>
-  <si>
-    <t>Lifehouse</t>
-  </si>
-  <si>
     <t>We're both looking for something
 We've been afraid to find
 It's easier to be brokenIt's easier to hide
@@ -5827,12 +5896,6 @@
 For the first time
 Like bein' in love to feel
 For the first time</t>
-  </si>
-  <si>
-    <t>Ayo Technology</t>
-  </si>
-  <si>
-    <t>50 Cent Featuring Justin Timberlake &amp; Timbaland</t>
   </si>
   <si>
     <t>Somethin' special
@@ -5918,12 +5981,6 @@
 Your hips, your thighs, they got me hypnotized, let me tell you</t>
   </si>
   <si>
-    <t>Outta My System</t>
-  </si>
-  <si>
-    <t>Bow Wow Featuring T-Pain &amp; Johnta Austin</t>
-  </si>
-  <si>
     <t>Damn, I mean, I just keep thinkin' about you
 I mean, I wanna move on but I can't move on
 It's like you got some kinda hold on me and, man I don't knowBut I'ma go ahead and talk about it, listen
@@ -6004,12 +6061,6 @@
 Peace</t>
   </si>
   <si>
-    <t>Teardrops On My Guitar</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>Drew looks at me
 I fake a smile so he won't see
 What I want and I needAnd everything that we should be
@@ -6053,12 +6104,6 @@
 And he's all that I need to fall into
 Drew looks at me
 I fake a smile so he won't see</t>
-  </si>
-  <si>
-    <t>Shut Up And Drive</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
   </si>
   <si>
     <t>I've been lookin' for a driver who is qualified
@@ -6113,12 +6158,6 @@
 Now shut up and drive (drive, drive, drive)
 Shut up and drive (drive, drive, drive, drive, drive, drive)
 (Drive, drive, drive, drive, drive, drive, drive)</t>
-  </si>
-  <si>
-    <t>Snow ((Hey Oh))</t>
-  </si>
-  <si>
-    <t>Red Hot Chili Peppers</t>
   </si>
   <si>
     <t>Come to decide that the things that I tried
@@ -6196,12 +6235,6 @@
 I said hey oh yeah, oh yeah
 Tell my love now
 Hey-hey yeah, oh yeah</t>
-  </si>
-  <si>
-    <t>Money Maker</t>
-  </si>
-  <si>
-    <t>Ludacris Featuring Pharrell</t>
   </si>
   <si>
     <t>Shake your money maker
@@ -6309,15 +6342,6 @@
 Like, eh, eh, eh</t>
   </si>
   <si>
-    <t>Kiss Kiss</t>
-  </si>
-  <si>
-    <t>Chris Brown Featuring T-Pain</t>
-  </si>
-  <si>
-    <t>Far Away</t>
-  </si>
-  <si>
     <t>This time, this place
 Misused, mistakes
 Too long, too lateWho was I to make you wait?
@@ -6371,18 +6395,6 @@
 Hold on to me and never let me go</t>
   </si>
   <si>
-    <t>Rock Yo Hips</t>
-  </si>
-  <si>
-    <t>Crime Mob Featuring Lil Scrappy</t>
-  </si>
-  <si>
-    <t>LoveStoned</t>
-  </si>
-  <si>
-    <t>Better Than Me</t>
-  </si>
-  <si>
     <t>I think you can do much better than me
 After all the lies that I made you believe
 And guilt kicks in and I start to seeThe edge of the bed where your nightgown used to be
@@ -6425,12 +6437,6 @@
 And I think you should know this</t>
   </si>
   <si>
-    <t>Paralyzer</t>
-  </si>
-  <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
     <t>I hold on so nervously, to me and my drink
 I wish it was coolin' me
 But so far has not been goodIt's been shitty, and I feel awkward as I should
@@ -6464,12 +6470,6 @@
 You'll probably move right through me on my way to you
 You'll probably move right through me on my way to you
 You'll probably move right through me on my way to you</t>
-  </si>
-  <si>
-    <t>That's That</t>
-  </si>
-  <si>
-    <t>Snoop Dogg Featuring R. Kelly</t>
   </si>
   <si>
     <t>I pull up, whip low in the Phantom
@@ -6622,21 +6622,579 @@
 That's that shit</t>
   </si>
   <si>
-    <t>Same Girl</t>
-  </si>
-  <si>
-    <t>R. Kelly Duet With Usher</t>
+    <t>Beautiful Girls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR! Sean Kingston!
+You're way too beautiful girl
+That's why it'll never work
+You'll have me suicidal, suicidal
+When you say it's over
+Damn all these beautiful girls
+They only wanna do your dirt
+They'll have you suicidal, suicidal
+When they say it's over
+See it started at the park used to chill after dark
+Oh when you took my heart that's when we fell apart
+'Cause we both thought that love lasts forever
+(Lasts forever)
+They say we too young to get ourselves sprung
+Oh, we didn't care, we made it very clear
+And they also said that we couldn't last together
+(Last together)
+See it's very defined, you're one of a kind
+But you mush up my mind, you have to get declined
+Oh lord, my baby is driving me crazy
+You're way too beautiful girl
+That's why it'll never work
+You'll have me suicidal, suicidal
+When you say it's over
+Damn all these beautiful girls
+They only wanna do your dirt
+They'll have you suicidal, suicidal
+When they say it's over
+It was back in '99 watchin' movies all the time
+Oh when I went away for doin' my first crime
+And I never thought that we was gonna see each other
+(See each other)
+And then I came out, mami moved me down south
+Oh I'm with my girl who I thought was my world
+It came out to be that she wasn't the girl for me
+(Girl for me)
+See it's very defined, you're one of a kind
+But you mush up my mind, you have to get declined
+Oh lord my baby is driving me crazy
+You're way too beautiful girl
+That's why it'll never work
+You'll have me suicidal, suicidal
+When you say it's over
+Damn all these beautiful girls
+They only wanna do your dirt
+They'll have you suicidal, suicidal
+When they say it's over
+Now we're fussing and now we're fighting
+Please tell me why I'm feelin' slighted
+And I don't know how to make it better
+(Make it better)
+You're dating other guys, you're telling me lies
+Oh I can't believe what I'm seein' with my eyes
+I'm losin' my mind and I don't think it's clever
+(Think it's clever)
+You're way too beautiful girl
+That's why it'll never work
+You'll have me suicidal, suicidal
+When you say it's over
+Damn all these beautiful girls
+They only wanna do your dirt
+They'll have you suicidal, suicidal
+Suicidal, suicide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Come enjoy the life
+Baby, take a ride
+I just wanna vibe with you, you
+Baby, you and I can have a good time
+Tell me what you like, ooh, ooh
+Now listen, I've been single for a while now
+And I've been kinda lonely
+But I'm looking for somebody to talk to, love me
+Someone who can hold me
+Is that you?
+I'm looking for somebody I can call boo
+Looking for the only one who I can give my all to
+Tell me if it's you, you, you
+What you wanna do, do, do?
+Make a move
+You can be my teacher, I'll do homework
+You can give me extra credit, baby, I'll do more work
+What you wanna do, do, do?
+Now it's me and you, you, you
+Make a move
+The mood is so right
+It feels so right
+You can be my prince, my knight
+You can be my Superman
+Save me here I am
+'Cause baby
+There's nothing I won't do
+To spend my life with you
+I'll give my all to you
+I promise that I will never lie to you, boy
+There's nothing I won't do
+To spend my life with you
+I'll give my all to you
+I promise that I will never lie to you, boy
+You and me together picture perfect
+I'll spend all my money, all my time
+Because you're worth it
+It's just me and you, you, you
+What you wanna do, do, do?
+Make a move
+Call me mama, spoil you like a baby
+Thinking 'bout you, dreaming 'bout you
+Got me going crazy
+What you wanna do, do, do?
+Now it's me and you, you, you
+Make a move
+The mood is so right
+It feels so right
+You can be my prince, my knight, whoa
+You can be my Superman
+Save me here I am
+Baby
+There's nothing I won't do (No, no)
+To spend my life with you (Life with you)
+I'll give my all to you (I'll give my all)
+I promise that I will never lie to you boy
+There's nothing I won't do (Nothing I won't do)
+To spend my life with you (You)
+I'll give my all to you (Yeah)
+I promise that I will never lie to you. boy
+Oh, oh
+I mean everything that I say
+From the bottom of my heart
+I would never, never, ever, hurt you
+I open my heart
+Open my heart, give it to you
+Tell the whole world that I'm in love with you
+Whatever you want, baby I'll do
+I know I don't want nobody else but you
+There's nothing I won't do (There's nothing I won't do baby)
+To spend my life with you (To spend my life with you)
+I'll give my all to you
+I promise that I will never lie to you boy (Oh)
+There's nothing I won't do (Nothing)
+To spend my life with you (Oh)
+I'll give my all to you (I will give my all to you)
+I promise that I will never lie to you, boy
+Come on boy and join me
+I'll be waitin', waitin', waitin' for you
+You can be my homie
+I'll be waitin', waitin', waitin' for you
+Baby, come and hold me
+I'll be waitin', waitin', waitin' for you
+Lookin' for my one and only
+You can be my one and only</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J. Holiday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J. Holiday
+Oo-ooh,
+Oo-ooooh
+(Ay-ay-ay, Aay, Ay-ay-ay, Aay, Ay-ay-ay, Ay)
+Oo-oooh
+Oh oohhh ooooohhh
+Into the bed, bed, bed
+Into the bed, bed, bed
+Whoaaa yeah
+Boy tell me what you want and i'll give you what you like, yeah
+Uh huh, alright, yes, my body's yours tonight Anything that you need, you can have it from me
+Cause baby I'm here to please, so put your love into me
+I know you like when i tease like that (like that) like that, especially when I'm at
+DON'T STOP, ooh i like what you're doing so please don't move
+Never met a man that turns me on like you do,
+Oh oh oh
+I love it, i love it, you love it, you love it,
+Everytime, everytime, we touchin', we touchin',
+I want it, i want it, you want it, you want it,
+I'll see you, see you in the morning, in the morning
+Wanna put my fingers through your hair
+Wrap me up in your legs
+And love you til' your eyes roll back
+I'm tryna put you to bed, bed, bed
+I'ma put you to bed, bed, bed
+Then you can rock my body
+Turn me over
+Love is war, Your my soldier
+Touchin' me like it's our first time
+I'ma put you to bed, bed, bed
+I'ma put you to bed, bed, bed
+I'm starin' at you while you're sleep
+Irreplaceable beauty
+Put my face up in your neck and breathe (Ooh, breathe)
+Take you into my senses
+Wake up it's time to finish
+Round two, round two
+Matter of fact, it's closer to three
+She like, "How long I been sleep?"
+Shawty kisses turn into the sweetest dreams
+Like give it to me
+And I can feel her tell me
+"My angel, this is wonderful
+Thanks for letting me bless ya"
+Come down, fly right
+Drift back into heaven
+Oh, oh, oh, oh
+I love it, i love it, you love it, you love it,
+Everytime, everytime, we touchin', we touchin',
+I want it, i want it, you want it, you want it,
+I'll see you, see you in the morning, in the morning
+Wanna put my fingers through your hair
+Wrap me up in your legs
+And love you til' your eyes roll back
+I'm tryna put you to bed, bed, bed
+I'ma put you to bed, bed, bed
+Then you can rock my body
+Turn me over
+Love is war, Your my soldier
+Touchin' me like it's our first time
+I'ma put you to bed, bed, bed
+I'ma put you to bed, bed, bed
+Watch the sunlight peak over the horizon
+Ooh-ooh, ooh-ooh, ooh-ooh, ooh-ooh
+The sun ain't the only thing that's shinin'
+Ooh-ooh, ooh-ooh, ooh-ooh, ooh-ooh
+[J. Holiday &amp;
+Now I'ma send you out into the world with my love
+Tell everybody, Ay
+Everybody
+Aay, Ay-ay-ay, Aay, Ay-ay-ay, Aay, Ay-ay-ay, Ay
+OOHH! Babyyyy!
+Wanna put my fingers through your hair
+Wrap me up in your legs
+And love you til' your eyes roll back
+I'm tryna put you to bed, bed, bed
+I'ma put you to bed, bed, bed
+Then I'ma rock your body
+Turn your over
+Love is war, Your my soldier...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 2 Step
+A 2 Step
+REMIX!!!
+Now Gone An 2 Step Now Get Jiggy Wit It REMIX!!!
+Now Gone An 2 Step
+Aye Watch Me 2 Step
+Now Can You 2 Step
+Like I 2 Step
+Watch Me Get Jiggy Wit It Gone 2 Step
+(T-Pain)
+You know my bank roll it gotta lot of zero's
+Teddy Pain (Teddy Pain) Tallahassee's hero
+I done got a grill now im in the A
+Two steppin let me show you how i do dis thing
+Take your left foot put it out in the front
+And do it... like this
+Now if you look around the club you would notice cant no body
+Do it quite... like this
+I got my shades on, dem oakleys to be exact
+Now when i sang my song imma bring dem hoes in the back
+And you know im the hottest nigga round
+So when i get them up to my room i got dem pounding me down
+Lets Get It...
+(Chrous)
+4(UNK).3(PAIN)...2... 2.
+2 Step
+2 Step
+Lets Go
+Now Gone An 2 Step Now Watch Me 2 Step Now Get Jiggy Wit It REMIXGone an 2 step
+(Dj Unk)
+Steppin to the right wipe me down man
+Steppin to the left with your stunner frames
+By this time the world know what to do
+Its goin down 2 steppin REMIX Unk what it do
+Im back one mo again with another one
+2 steppin gettin jiggy baby have some fun
+They said it couldnt be done as i got it crankin
+2 steppin hey babe baby AAAA????
+Now gone get it shawty the choice of i climb back on
+One hit wonder but they wonder how i do it all
+They got there step wrong they try to bite mine
+Lets see whats happenin when i count down one more time
+GO
+(Chrous)
+4(UNK).3(PAIN)...2... 2.
+2 Step
+2 Step
+Lets Go
+Now Gone An 2 Step Now Watch Me 2 Step Now Get Jiggy Wit It REMIXGone an 2 step
+(Jim Jones)
+Now catch you 2 steppin i got my goons reppin
+We turn the VIP into the do or do it section
+You know it the dru selections im blue VVS'in
+We aint gonna talk about the whips you know the coops selection
+And i got everything that you want im registered to to punk
+I get bread like crutonts i make doe like cruissants
+Im grey poupon bentley baby what the xxxx you want
+Its something living latley
+Like? call the car dealer then? dealer
+Now we out at Vegas poking faces with the car dealer
+In? going to hard liquor you better watch your xxx
+When them foreign cars wheel out
+(Chrous)
+4(UNK).3(PAIN)...2... 2.
+2 Step
+2 Step
+Lets Go
+Now Gone An 2 Step Now Watch Me 2 Step Now Get Jiggy Wit It REMIXGone an 2 step
+(E-40)
+Im in my caddies on two shoes (two shoes)
+Breaking all the rules (the rules)
+Two hitters man two fools (two fools)
+Two hammers man two 2's (two 2's)
+Shining like a chandelier (lier)
+Diamonds up in my ear (ear)
+Sick with it trophy on my neck
+Im dang there well their way
+Too much candy on my ride (ride)
+Too many rumors i did died (died)
+Too many haters on this earth
+All my life it aint been certs (aint been certs)
+Started out real small (real small)
+But now my male is tall (tall)
+Had to walk before i crawled
+I had my back against the wall (wall)
+Two faces not us two faces at once
+Grittin gettin it in
+Huslters-R-us never no punk
+Ill 2 step on your chin
+I see some bruhs (i see some bruhs)
+2 stepin by them lonesome (by them lonesome)
+These square suckers they acting they dont wanna (dont wanna)
+THEY DONT KNOW, THEY DONT KNOW, THEY DONT KNOW
+YOU GOTTA FIND THEM DOE, SEND THEM DOE, BREAK THEM DOE
+YOU GOTTA GET THE DOE, GET THE DOE, GET THE DOE
+I MEAN GET MAN RAIN, SHINE, SLEET, OR SNOW
+See i managed with it, i get jiggy with it, HAHAHA
+()
+2 Step
+2 Step
+Lets Go
+Now Gone An 2 Step Now Watch Me 2 Step Now Get Jiggy Wit It REMIXGone an 2 step
+A 2 Step...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I like where we are
+When we drive in your car
+I like where we are
+Here
+'Cause our lips can touch
+And our cheeks can brush
+Our lips can touch
+Here
+Well you are the one
+The one that lies close to me
+Whispers hello, I miss you quite terribly
+I fell in love
+In love with you suddenly
+Now there's no place else I could be
+But here in your arms
+I like where you sleep
+When you sleep next to me
+I like where you sleep
+Here
+Our lips can touch
+And our cheeks can brush
+Our lips can touch
+Here
+Well you are the one
+The one that lies close to me
+Whispers hello, I miss you quite terribly
+I fell in love
+In love with you suddenly
+Now there's no place else I could be
+But here in your arms
+Our lips can touch
+Our lips can touch
+Here
+Well you are the one
+The one that lies close to me
+Whispers hello, I miss you quite terribly
+I fell in love
+In love with you suddenly
+Now there's no place else I could be
+But here in your arms
+Well you are the one
+The one that lies close to me
+Whispers hello, I miss you quite terribly
+I fell in love
+In love with you suddenly
+Now there's no place else I could be
+But here in your arms
+Here in your arms
+Here in your arms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High on the hill with the lonely goatherd
+Lay odl lay odl lay he hoo
+Yodel back with the girl &amp; goatherd
+Lay odl lay odl oh.
+Wind It Up, Wind It Up, Wind It Up!
+Odl lay odl lay odl-oo.
+Yeah.
+This is the key that makes us wind up
+When the beat comes on, the girls all line up
+And the boys all look, but no, they can't touch
+But the girls want to know why boys like us so much.
+They like the way we dance, they like the way we work
+They like the way that L.A.M.B. is going 'cross my shirt
+They like the way my pants, it compliments my shape.
+She's crazy, right?
+They like the way we react every time we hear the...
+Every time the bass bang
+Realize it calls your name
+Let the beat wind you up
+And don't stop 'til your time is up.
+Get in line now.
+Wind It Up! Uh, uh, uh.
+Wind It Up! Uh, uh, uh.,,,,,,
+Come on.
+Wind It Up! Uh, uh, uh.
+Odl lay odl lay odl-oo.
+You've got to let the beat get under your skin
+You've got to open up &amp; let it all in
+But see, once it gets in, the popping begins
+Then you find out why all the boys stare.
+See, they're trying to bite our style
+Trying to study our approach
+They like the way we do it, so original
+I guess that they are slow, so they should leave the room
+This beat is for the clubs &amp; cars that go...
+Every time the bass bang
+Realize it calls your name
+Let the beat wind you up
+And don't stop 'til your time is up.
+Get in line now.
+Wind It Up! Uh, uh, uh.
+Are you all ready?
+Wind It Up! Uh, uh, uh.
+Wind It Up! Uh, uh, uh...
+Wind It Up!
+Odl lay odl lay odl-oo.
+Uh-huh, it's your moment
+Uh-huh, come on girl, you know you own it
+Uh-huh, you know your key is still tick-tockin'
+Hell yeah, but you know they're watchin'.
+Get it girl, get it, get it girl
+Get it girl, get it, get it girl...
+To the front, to the side
+To the back, but don't let him ride
+Keep goin' girl, it's your night
+Don't let him steal your light
+I know he thinks your fine &amp; stuff.
+But does he know how to wind you up?
+Come on.
+Wind It Up! Uh, uh, uh.
+Wind It Up! Uh, uh, uh...
+Wind It Up! Uh, uh, uh.
+Wind It Up!
+Odl lay odl lay odl lay, hey!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoveStoned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey!
+She's freaky, and she knows it
+She's freaky, but I like it
+Listen
+She grabs the yellow bottle
+She likes the way it hits her lips
+She gets to the bottom
+It sends her on a trip so right
+She might be going home with me tonight
+She looks like a model
+Except she's got a little more ass
+Don't even bother
+Unless you've got that thing she likes
+I hope she's going home with me tonight
+Those flashing lights come from everywhere
+The way they hit her I have to stop and stare
+She's got me love stoned
+Man, I swear she's bad, and she knows
+I think that she knows
+She's freaky, and she knows it
+She's freaky, but I like it
+She shuts the room down
+The way she walks and causes a fuss
+The baddest in town
+She's flawless like some uncut ice
+I hope she's going home with me tonight
+And all she wants is to dance
+That's why you'll find her on the floor
+But you don't have a chance
+Unless you move the way that she likes
+That's why she's going home with me tonight
+Those flashing lights come from everywhere
+The way they hit her I have to stop and stare
+She's got me love stoned
+Man, I swear she's bad, and she knows
+I think that she knows
+Those flashing lights seem to cause a glare
+The way they hit her I have to stop and stare
+She's got me love stoned from everywhere
+She's bad, and she knows
+I think that she knows
+Now dance
+Little girl
+You're freaky, but I like it
+Hot damn!
+Let me put my funk on this one time
+Those flashing lights come from everywhere
+The way they hit her I have to stop and stare
+She's got me love stoned
+Man, I swear she's bad, and she knows
+I think that she knows
+Those flashing lights seem to cause a glare
+The way they hit her I just stop and stare
+She's got me love stoned from everywhere
+She's bad, and she knows
+I think that she knows
+Those flashing lights come from everywhere
+The way they hit her I have to stop and stare
+She's got me love stoned
+Man, I swear she's bad, and she knows
+I think that she knows
+Those flashing lights come from everywhere
+The way they hit her I just stop and stare
+She's got me love stoned
+I think I'm love stoned
+She's got me love stoned
+I think that she knows, think that she knows, oh, oh
+I think that she knows, think that she knows, oh, oh
+I think that she knows, think that she knows, oh, oh
+Those flashing lights come from everywhere
+The way they hit her I just stop and stare
+I'm love stoned from everywhere, and she knows
+I think that she knows, oh, oh
+And now I walk around without a care
+She's got me hooked, it just ain't fair, but I
+I'm love stoned, and I could swear
+That she knows
+Think that she knows, oh, oh
+She knows, she knows, oh, oh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6644,8 +7202,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6657,7 +7222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6665,24 +7230,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6724,7 +7315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6756,9 +7347,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6790,6 +7399,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6965,1066 +7592,1689 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>79</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E80">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E81">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E87">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>89</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>90</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C92" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C93" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C94" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E94">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C95" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" t="s">
-        <v>152</v>
-      </c>
-      <c r="C55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>176</v>
-      </c>
-      <c r="B64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>196</v>
-      </c>
-      <c r="B72" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>204</v>
-      </c>
-      <c r="B75" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>207</v>
-      </c>
-      <c r="B76" t="s">
-        <v>208</v>
-      </c>
-      <c r="C76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>210</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>222</v>
-      </c>
-      <c r="B82" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>225</v>
-      </c>
-      <c r="B83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" t="s">
-        <v>231</v>
-      </c>
-      <c r="C85" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>233</v>
-      </c>
-      <c r="B86" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>236</v>
-      </c>
-      <c r="B87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C87" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>239</v>
-      </c>
-      <c r="B88" t="s">
-        <v>240</v>
-      </c>
-      <c r="C88" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>242</v>
-      </c>
-      <c r="B89" t="s">
-        <v>243</v>
-      </c>
-      <c r="C89" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>245</v>
-      </c>
-      <c r="B90" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>251</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="E100">
         <v>252</v>
       </c>
-      <c r="C92" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>254</v>
-      </c>
-      <c r="B93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>256</v>
-      </c>
-      <c r="B94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>258</v>
-      </c>
-      <c r="B95" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>260</v>
-      </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>261</v>
-      </c>
-      <c r="B97" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>266</v>
-      </c>
-      <c r="B99" t="s">
-        <v>267</v>
-      </c>
-      <c r="C99" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>269</v>
-      </c>
-      <c r="B100" t="s">
-        <v>270</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>